--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\my\exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B9611-6284-4552-BAC3-C613085C7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD6159-EECD-4273-A3DE-11D12AE299FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>НГУ</t>
+    <t>yarkoz</t>
   </si>
   <si>
-    <t>Азов</t>
-  </si>
-  <si>
-    <t>Нгу</t>
-  </si>
-  <si>
-    <t>Хартія</t>
-  </si>
-  <si>
-    <t>нгу</t>
-  </si>
-  <si>
-    <t>донбас</t>
+    <t>Козир</t>
   </si>
 </sst>
 </file>
@@ -360,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,32 +361,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD6159-EECD-4273-A3DE-11D12AE299FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F3703-0BD6-418E-8458-DC1D6A67B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>yarkoz</t>
   </si>
   <si>
-    <t>Козир</t>
+    <t>ooo</t>
   </si>
 </sst>
 </file>
@@ -348,23 +348,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>458</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F3703-0BD6-418E-8458-DC1D6A67B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BC8E8F-FCE0-4626-A1B5-A514BA78D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>yarkoz</t>
   </si>
   <si>
     <t>ooo</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -348,27 +354,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>458</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>111</v>
       </c>
     </row>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BC8E8F-FCE0-4626-A1B5-A514BA78D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE62D6B-64B6-416C-8106-1F75DBDA8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -356,7 +357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -389,4 +390,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE62D6B-64B6-416C-8106-1F75DBDA8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF74F1-B0E8-42D9-8C61-154F5AE31C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>yarkoz</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>point</t>
   </si>
 </sst>
 </file>
@@ -394,20 +400,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>222</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF74F1-B0E8-42D9-8C61-154F5AE31C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83535FA0-9111-4737-A6F1-B6DA1E0DEA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83535FA0-9111-4737-A6F1-B6DA1E0DEA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042B8F7-8982-4DF8-8D63-645E8386E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>yarkoz</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>point</t>
+  </si>
+  <si>
+    <t>станова тяга</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -402,11 +405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -417,11 +423,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042B8F7-8982-4DF8-8D63-645E8386E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674675CC-0473-472D-AD85-8E0CCBD103E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="yarkoz" sheetId="3" r:id="rId3"/>
+    <sheet name="borat27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>yarkoz</t>
   </si>
   <si>
-    <t>ooo</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>станова тяга</t>
+  </si>
+  <si>
+    <t>borat27</t>
   </si>
 </sst>
 </file>
@@ -366,18 +368,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -390,7 +392,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>111</v>
@@ -405,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,15 +418,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -433,4 +435,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA397D7-89C4-4E27-A1CC-DA90AE6F8100}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFF236-508C-4CC3-9E6A-DDF6ADA2A030}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\HTML\gym\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38093\gym\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674675CC-0473-472D-AD85-8E0CCBD103E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B99A9-53A8-40EF-8909-DF450C544BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="yarkoz" sheetId="3" r:id="rId3"/>
-    <sheet name="borat27" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,9 +35,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>exercise</t>
   </si>
   <si>
@@ -49,6 +45,9 @@
   </si>
   <si>
     <t>borat27</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -369,33 +368,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>458</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +407,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,15 +417,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -438,49 +437,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA397D7-89C4-4E27-A1CC-DA90AE6F8100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD120E-19E7-4BF0-8015-6304872384E2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFF236-508C-4CC3-9E6A-DDF6ADA2A030}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/gymexp.xlsx
+++ b/public/gymexp.xlsx
@@ -1,71 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38093\gym\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B99A9-53A8-40EF-8909-DF450C544BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="5" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>yarkoz</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>exercise</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>станова тяга</t>
-  </si>
-  <si>
-    <t>borat27</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,37 +387,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>yarkoz</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>borat27</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
@@ -403,31 +449,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1FD2F-7008-45F8-BAD4-7397AA2BF28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col width="16.88671875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Вправа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Вага</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>станова тяга</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>130</v>
       </c>
     </row>
@@ -437,28 +493,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD120E-19E7-4BF0-8015-6304872384E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.6640625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Вправа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Вага</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>станова тяга</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>45</v>
       </c>
     </row>
